--- a/Step_1-4_sheet_of_Session_9.xlsx
+++ b/Step_1-4_sheet_of_Session_9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Even Numbers" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Problem: Given a number as an input, we need to print all the even numbers starting from 1 to a given number.</t>
   </si>
@@ -157,6 +157,42 @@
   </si>
   <si>
     <t>Problem: Given the time and distance, calculate the speed.</t>
+  </si>
+  <si>
+    <t>When button Calculate is clicked call the function &amp; pass the entered time &amp; distance as arguments to it.</t>
+  </si>
+  <si>
+    <t>Define the function to calculate speed which will take two inputs as distance &amp; time</t>
+  </si>
+  <si>
+    <t>If time is 0, print a msg saying "Cannot calculate speed"</t>
+  </si>
+  <si>
+    <t>Or calculate the speed &amp; return it.</t>
+  </si>
+  <si>
+    <t>time should not be zero</t>
+  </si>
+  <si>
+    <t>values for distance and time should not be negative</t>
+  </si>
+  <si>
+    <t>10, 2</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>12, 3</t>
+  </si>
+  <si>
+    <t>10, 0</t>
+  </si>
+  <si>
+    <t>Cannot calculate speed</t>
+  </si>
+  <si>
+    <t>"-1" 12</t>
   </si>
 </sst>
 </file>
@@ -2729,7 +2765,7 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3154,8 +3190,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -3163,7 +3199,7 @@
     <col min="1" max="1" width="19.3796296296296" customWidth="1"/>
     <col min="2" max="2" width="25.3796296296296" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="5" max="5" width="88.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3187,14 +3223,18 @@
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
@@ -3202,14 +3242,18 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="8" t="s">
@@ -3224,7 +3268,9 @@
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3233,7 +3279,9 @@
       <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3287,17 +3335,29 @@
       <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17">
+        <v>5</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="18"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="17">
+        <v>4</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="18"/>
@@ -3352,13 +3412,21 @@
       <c r="A24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="18"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" s="18"/>
